--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_32.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1500000/Output_17_32.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2632242.293196906</v>
+        <v>2629698.483689824</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283184</v>
+        <v>416855.1052283192</v>
       </c>
     </row>
     <row r="9">
@@ -659,7 +659,7 @@
         <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>225.4031397636151</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -671,10 +671,10 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="H2" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -707,13 +707,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>212.2897156032232</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>124.0596109626759</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -722,7 +722,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -735,25 +735,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>99.47932027120974</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -783,28 +783,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>165.4291737832671</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>116.3879392317513</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -817,16 +817,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>166.8836670385466</v>
@@ -868,22 +868,22 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>74.85750860793483</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>211.4678895290973</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -905,16 +905,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>219.4450108596166</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="G5" t="n">
         <v>12.83417464571001</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>79.2430297836181</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>152.7676931992223</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1481678782825</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>263.7138800015063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -972,25 +972,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>46.61022226819667</v>
       </c>
       <c r="F6" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>1.219197308813535</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
@@ -1020,16 +1020,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>194.8409875848768</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8544875035546</v>
       </c>
       <c r="V6" t="n">
         <v>232.8005871494253</v>
@@ -1041,7 +1041,7 @@
         <v>0</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="7">
@@ -1051,19 +1051,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>43.96938074644527</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1099,13 +1099,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>17.28688718947271</v>
+        <v>127.5046028836639</v>
       </c>
       <c r="S7" t="n">
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>223.2143458795659</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,7 +1114,7 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="X7" t="n">
         <v>0</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>275.7897546824505</v>
       </c>
       <c r="C8" t="n">
         <v>0</v>
@@ -1139,19 +1139,19 @@
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>263.4828740413389</v>
+        <v>411.5491597882495</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0334742203005</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.76608425465056</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4854171348408</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6645630646898</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1224,13 +1224,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>133.5587268592368</v>
+        <v>133.5587268592355</v>
       </c>
       <c r="H9" t="n">
         <v>92.8390969161451</v>
       </c>
       <c r="I9" t="n">
-        <v>20.24979976115247</v>
+        <v>20.2497997611525</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1291,25 +1291,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>84.73107433456144</v>
+        <v>139.0046374958483</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>104.8162497430996</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1336,7 +1336,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5869591640955</v>
       </c>
       <c r="S10" t="n">
         <v>0</v>
@@ -1345,16 +1345,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271897703044</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -1367,7 +1367,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>382.7338416634811</v>
+        <v>382.7338416634794</v>
       </c>
       <c r="C11" t="n">
         <v>365.2728917710076</v>
@@ -1418,7 +1418,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1464,7 +1464,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1528,19 +1528,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>130.1208074460191</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1582,7 +1582,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
-        <v>228.9553704673005</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
         <v>252.137643323828</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520967</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634812</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1622,7 +1622,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H14" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1765,25 +1765,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>55.52079624060472</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1813,7 +1813,7 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
         <v>217.4054503272883</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>100.9410961977584</v>
       </c>
     </row>
     <row r="17">
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1892,7 +1892,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -2005,7 +2005,7 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -2014,10 +2014,10 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H19" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -2047,7 +2047,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2084,7 +2084,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D20" t="n">
-        <v>354.683041620683</v>
+        <v>354.6830416206824</v>
       </c>
       <c r="E20" t="n">
         <v>381.9303700722618</v>
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695619</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2248,16 +2248,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703271</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>4.019807611472022</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,7 +2284,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
@@ -2324,7 +2324,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E23" t="n">
-        <v>381.9303700722623</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F23" t="n">
         <v>406.8760457417114</v>
@@ -2333,7 +2333,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H23" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444132</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>83.06560892428212</v>
+        <v>118.4817021252624</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
         <v>199.0222304576161</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>135.0949745400607</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673023</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2804,7 +2804,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187871</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2858,7 +2858,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.237938656054</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2950,10 +2950,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766861</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2962,10 +2962,10 @@
         <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>165.5241382922688</v>
+        <v>99.97427419833815</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3187,16 +3187,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>9.146142788179931</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3244,7 +3244,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>252.137643323828</v>
+        <v>68.11883945937008</v>
       </c>
       <c r="W34" t="n">
         <v>286.522998336591</v>
@@ -3272,13 +3272,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E35" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722614</v>
       </c>
       <c r="F35" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.803338518787</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3427,19 +3427,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>75.55208621972906</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>83.06560892428212</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
         <v>181.0262860016446</v>
@@ -3484,7 +3484,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W37" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X37" t="n">
         <v>225.7096553890372</v>
@@ -3500,7 +3500,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>382.7338416634806</v>
+        <v>382.7338416634803</v>
       </c>
       <c r="C38" t="n">
         <v>365.2728917710076</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3566,7 +3566,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X38" t="n">
-        <v>369.7311006784686</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y38" t="n">
         <v>386.2379386560536</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>83.06560892428213</v>
+        <v>39.52129633183122</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
         <v>181.0262860016446</v>
@@ -3788,7 +3788,7 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
         <v>199.0222304576161</v>
@@ -3907,16 +3907,16 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>21.90286287505374</v>
       </c>
       <c r="H43" t="n">
-        <v>83.06560892428213</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3983,7 +3983,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E44" t="n">
-        <v>381.9303700722618</v>
+        <v>381.9303700722609</v>
       </c>
       <c r="F44" t="n">
         <v>406.8760457417114</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
         <v>199.0222304576161</v>
@@ -4135,7 +4135,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>28.75188085812011</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
@@ -4153,7 +4153,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,10 +4180,10 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
-        <v>123.797182079703</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
         <v>217.4054503272883</v>
@@ -4304,22 +4304,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>788.477863438847</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="C2" t="n">
-        <v>560.7979242836801</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="D2" t="n">
-        <v>560.7979242836801</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="E2" t="n">
-        <v>560.7979242836801</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="F2" t="n">
-        <v>553.8524235344767</v>
+        <v>553.8524235344764</v>
       </c>
       <c r="G2" t="n">
-        <v>287.4747669672986</v>
+        <v>287.4747669672985</v>
       </c>
       <c r="H2" t="n">
         <v>21.0971104001205</v>
@@ -4343,7 +4343,7 @@
         <v>704.5463761991318</v>
       </c>
       <c r="O2" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358414</v>
       </c>
       <c r="P2" t="n">
         <v>1011.026904601763</v>
@@ -4355,25 +4355,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S2" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T2" t="n">
-        <v>1054.855520006025</v>
+        <v>686.1106626298172</v>
       </c>
       <c r="U2" t="n">
-        <v>1054.855520006025</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="V2" t="n">
-        <v>1054.855520006025</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="W2" t="n">
-        <v>1054.855520006025</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="X2" t="n">
-        <v>788.477863438847</v>
+        <v>560.7979242836799</v>
       </c>
       <c r="Y2" t="n">
-        <v>788.477863438847</v>
+        <v>560.7979242836799</v>
       </c>
     </row>
     <row r="3">
@@ -4383,22 +4383,22 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>750.7407242111801</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="C3" t="n">
-        <v>576.2876949300531</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="D3" t="n">
-        <v>427.3532852688019</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="E3" t="n">
-        <v>268.1158302633464</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="G3" t="n">
-        <v>121.5812722902314</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="H3" t="n">
         <v>21.0971104001205</v>
@@ -4425,34 +4425,34 @@
         <v>813.1187583557301</v>
       </c>
       <c r="P3" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q3" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="S3" t="n">
-        <v>1036.519636212815</v>
+        <v>1054.855520006025</v>
       </c>
       <c r="T3" t="n">
-        <v>1036.519636212815</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="U3" t="n">
-        <v>1036.519636212815</v>
+        <v>858.0464416374624</v>
       </c>
       <c r="V3" t="n">
-        <v>1036.519636212815</v>
+        <v>690.9462660988088</v>
       </c>
       <c r="W3" t="n">
-        <v>1036.519636212815</v>
+        <v>436.7089093706072</v>
       </c>
       <c r="X3" t="n">
-        <v>1036.519636212815</v>
+        <v>228.8574091650744</v>
       </c>
       <c r="Y3" t="n">
-        <v>918.9560612312482</v>
+        <v>21.0971104001205</v>
       </c>
     </row>
     <row r="4">
@@ -4462,16 +4462,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>484.4695121254205</v>
+        <v>358.602653973024</v>
       </c>
       <c r="C4" t="n">
-        <v>484.4695121254205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="D4" t="n">
-        <v>484.4695121254205</v>
+        <v>189.666471045117</v>
       </c>
       <c r="E4" t="n">
-        <v>336.5564185430274</v>
+        <v>189.666471045117</v>
       </c>
       <c r="F4" t="n">
         <v>189.666471045117</v>
@@ -4510,28 +4510,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S4" t="n">
-        <v>926.0629918407079</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T4" t="n">
-        <v>926.0629918407079</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U4" t="n">
-        <v>926.0629918407079</v>
+        <v>434.216299031544</v>
       </c>
       <c r="V4" t="n">
-        <v>926.0629918407079</v>
+        <v>358.602653973024</v>
       </c>
       <c r="W4" t="n">
-        <v>926.0629918407079</v>
+        <v>358.602653973024</v>
       </c>
       <c r="X4" t="n">
-        <v>698.0734409426906</v>
+        <v>358.602653973024</v>
       </c>
       <c r="Y4" t="n">
-        <v>484.4695121254205</v>
+        <v>358.602653973024</v>
       </c>
     </row>
     <row r="5">
@@ -4541,31 +4541,31 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>255.7225503044908</v>
+        <v>646.859700735818</v>
       </c>
       <c r="C5" t="n">
-        <v>255.7225503044908</v>
+        <v>646.859700735818</v>
       </c>
       <c r="D5" t="n">
-        <v>255.7225503044908</v>
+        <v>646.859700735818</v>
       </c>
       <c r="E5" t="n">
-        <v>255.7225503044908</v>
+        <v>646.859700735818</v>
       </c>
       <c r="F5" t="n">
-        <v>34.06092317356496</v>
+        <v>380.48204416864</v>
       </c>
       <c r="G5" t="n">
-        <v>21.0971104001205</v>
+        <v>367.5182313951956</v>
       </c>
       <c r="H5" t="n">
-        <v>21.0971104001205</v>
+        <v>101.1405748280176</v>
       </c>
       <c r="I5" t="n">
         <v>21.0971104001205</v>
       </c>
       <c r="J5" t="n">
-        <v>49.28269087917579</v>
+        <v>49.28269087917587</v>
       </c>
       <c r="K5" t="n">
         <v>142.2640879052542</v>
@@ -4574,13 +4574,13 @@
         <v>294.5174947515907</v>
       </c>
       <c r="M5" t="n">
-        <v>495.5981834030605</v>
+        <v>495.5981834030604</v>
       </c>
       <c r="N5" t="n">
-        <v>704.5463761991319</v>
+        <v>704.5463761991318</v>
       </c>
       <c r="O5" t="n">
-        <v>888.5149683358417</v>
+        <v>888.5149683358416</v>
       </c>
       <c r="P5" t="n">
         <v>1011.026904601763</v>
@@ -4592,25 +4592,25 @@
         <v>1054.855520006025</v>
       </c>
       <c r="S5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="T5" t="n">
-        <v>1054.855520006025</v>
+        <v>900.5447187946892</v>
       </c>
       <c r="U5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.859700735818</v>
       </c>
       <c r="V5" t="n">
-        <v>1054.855520006025</v>
+        <v>646.859700735818</v>
       </c>
       <c r="W5" t="n">
-        <v>788.477863438847</v>
+        <v>646.859700735818</v>
       </c>
       <c r="X5" t="n">
-        <v>522.1002068716689</v>
+        <v>646.859700735818</v>
       </c>
       <c r="Y5" t="n">
-        <v>255.7225503044908</v>
+        <v>646.859700735818</v>
       </c>
     </row>
     <row r="6">
@@ -4620,22 +4620,22 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>651.4880747542143</v>
+        <v>168.6623048843694</v>
       </c>
       <c r="C6" t="n">
-        <v>477.0350454730873</v>
+        <v>168.6623048843694</v>
       </c>
       <c r="D6" t="n">
-        <v>328.100635811836</v>
+        <v>168.6623048843694</v>
       </c>
       <c r="E6" t="n">
-        <v>168.8631808063805</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="F6" t="n">
-        <v>22.32862283326548</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="G6" t="n">
-        <v>22.32862283326548</v>
+        <v>121.5812722902314</v>
       </c>
       <c r="H6" t="n">
         <v>21.0971104001205</v>
@@ -4662,34 +4662,34 @@
         <v>813.1187583557301</v>
       </c>
       <c r="P6" t="n">
-        <v>930.1763583891336</v>
+        <v>1026.524810789493</v>
       </c>
       <c r="Q6" t="n">
         <v>1054.855520006025</v>
       </c>
       <c r="R6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="S6" t="n">
-        <v>1054.855520006025</v>
+        <v>1036.519636212815</v>
       </c>
       <c r="T6" t="n">
-        <v>1054.855520006025</v>
+        <v>839.7105578442525</v>
       </c>
       <c r="U6" t="n">
-        <v>1054.855520006025</v>
+        <v>611.574711881066</v>
       </c>
       <c r="V6" t="n">
-        <v>819.7034117742824</v>
+        <v>376.4226036493233</v>
       </c>
       <c r="W6" t="n">
-        <v>819.7034117742824</v>
+        <v>376.4226036493233</v>
       </c>
       <c r="X6" t="n">
-        <v>819.7034117742824</v>
+        <v>376.4226036493233</v>
       </c>
       <c r="Y6" t="n">
-        <v>819.7034117742824</v>
+        <v>168.6623048843694</v>
       </c>
     </row>
     <row r="7">
@@ -4699,16 +4699,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>634.9529738206666</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="C7" t="n">
-        <v>466.0167908927597</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="D7" t="n">
-        <v>315.900151480424</v>
+        <v>169.0102039825136</v>
       </c>
       <c r="E7" t="n">
-        <v>167.9870578980309</v>
+        <v>21.0971104001205</v>
       </c>
       <c r="F7" t="n">
         <v>21.0971104001205</v>
@@ -4726,19 +4726,19 @@
         <v>21.0971104001205</v>
       </c>
       <c r="K7" t="n">
-        <v>126.4133765287949</v>
+        <v>126.4133765287947</v>
       </c>
       <c r="L7" t="n">
-        <v>316.7083726551011</v>
+        <v>316.7083726551009</v>
       </c>
       <c r="M7" t="n">
-        <v>527.7368878375339</v>
+        <v>527.7368878375337</v>
       </c>
       <c r="N7" t="n">
-        <v>739.1822330227051</v>
+        <v>739.1822330227048</v>
       </c>
       <c r="O7" t="n">
-        <v>918.4699372075547</v>
+        <v>918.4699372075545</v>
       </c>
       <c r="P7" t="n">
         <v>1048.360858816803</v>
@@ -4747,28 +4747,28 @@
         <v>1054.855520006025</v>
       </c>
       <c r="R7" t="n">
-        <v>1037.394017794436</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="S7" t="n">
-        <v>1037.394017794436</v>
+        <v>926.0629918407077</v>
       </c>
       <c r="T7" t="n">
-        <v>1037.394017794436</v>
+        <v>700.593955598722</v>
       </c>
       <c r="U7" t="n">
-        <v>1037.394017794436</v>
+        <v>700.593955598722</v>
       </c>
       <c r="V7" t="n">
-        <v>1037.394017794436</v>
+        <v>700.593955598722</v>
       </c>
       <c r="W7" t="n">
-        <v>1037.394017794436</v>
+        <v>434.216299031544</v>
       </c>
       <c r="X7" t="n">
-        <v>1037.394017794436</v>
+        <v>434.216299031544</v>
       </c>
       <c r="Y7" t="n">
-        <v>816.6014386509063</v>
+        <v>213.4237198880139</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1842.900032935084</v>
+        <v>832.1286765711423</v>
       </c>
       <c r="C8" t="n">
-        <v>1842.900032935084</v>
+        <v>832.1286765711423</v>
       </c>
       <c r="D8" t="n">
-        <v>1484.634334328334</v>
+        <v>473.8629779643918</v>
       </c>
       <c r="E8" t="n">
-        <v>1098.846081730089</v>
+        <v>473.8629779643918</v>
       </c>
       <c r="F8" t="n">
-        <v>687.8601769404818</v>
+        <v>466.9174772151883</v>
       </c>
       <c r="G8" t="n">
-        <v>421.7158597270081</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="H8" t="n">
-        <v>117.6416433428662</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="I8" t="n">
-        <v>51.21125520685553</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="J8" t="n">
-        <v>187.3702251467165</v>
+        <v>187.3702251467162</v>
       </c>
       <c r="K8" t="n">
-        <v>442.1757437607408</v>
+        <v>442.1757437607403</v>
       </c>
       <c r="L8" t="n">
-        <v>795.1862829045908</v>
+        <v>795.1862829045899</v>
       </c>
       <c r="M8" t="n">
         <v>1219.647962995223</v>
       </c>
       <c r="N8" t="n">
-        <v>1655.59168520958</v>
+        <v>1655.591685209579</v>
       </c>
       <c r="O8" t="n">
-        <v>2053.905718940591</v>
+        <v>2053.905718940589</v>
       </c>
       <c r="P8" t="n">
-        <v>2359.356530550192</v>
+        <v>2359.356530550191</v>
       </c>
       <c r="Q8" t="n">
-        <v>2540.564622661158</v>
+        <v>2540.564622661156</v>
       </c>
       <c r="R8" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342775</v>
       </c>
       <c r="S8" t="n">
-        <v>2560.562760342777</v>
+        <v>2435.830015762128</v>
       </c>
       <c r="T8" t="n">
-        <v>2560.562760342777</v>
+        <v>2227.077931858401</v>
       </c>
       <c r="U8" t="n">
-        <v>2560.562760342777</v>
+        <v>2227.077931858401</v>
       </c>
       <c r="V8" t="n">
-        <v>2229.499872999206</v>
+        <v>2227.077931858401</v>
       </c>
       <c r="W8" t="n">
-        <v>2229.499872999206</v>
+        <v>1874.309276588287</v>
       </c>
       <c r="X8" t="n">
-        <v>2229.499872999206</v>
+        <v>1500.843518327207</v>
       </c>
       <c r="Y8" t="n">
-        <v>2229.499872999206</v>
+        <v>1110.704186351395</v>
       </c>
     </row>
     <row r="9">
@@ -4857,19 +4857,19 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>929.5097208010714</v>
+        <v>929.50972080107</v>
       </c>
       <c r="C9" t="n">
-        <v>755.0566915199444</v>
+        <v>755.056691519943</v>
       </c>
       <c r="D9" t="n">
-        <v>606.1222818586931</v>
+        <v>606.1222818586917</v>
       </c>
       <c r="E9" t="n">
-        <v>446.8848268532376</v>
+        <v>446.8848268532362</v>
       </c>
       <c r="F9" t="n">
-        <v>300.3502688801226</v>
+        <v>300.3502688801212</v>
       </c>
       <c r="G9" t="n">
         <v>165.4424639718026</v>
@@ -4878,55 +4878,55 @@
         <v>71.66559839993884</v>
       </c>
       <c r="I9" t="n">
-        <v>51.21125520685553</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="J9" t="n">
-        <v>113.4887579637183</v>
+        <v>238.318882950723</v>
       </c>
       <c r="K9" t="n">
-        <v>559.90633895727</v>
+        <v>422.9158793018216</v>
       </c>
       <c r="L9" t="n">
-        <v>854.4423223907506</v>
+        <v>1056.655162486658</v>
       </c>
       <c r="M9" t="n">
-        <v>1217.508790865051</v>
+        <v>1419.721630960959</v>
       </c>
       <c r="N9" t="n">
-        <v>1604.59319333762</v>
+        <v>1806.806033433527</v>
       </c>
       <c r="O9" t="n">
-        <v>1936.480003325008</v>
+        <v>2174.01987145925</v>
       </c>
       <c r="P9" t="n">
-        <v>2445.345361789032</v>
+        <v>2421.055229888873</v>
       </c>
       <c r="Q9" t="n">
-        <v>2560.562760342777</v>
+        <v>2536.272628442618</v>
       </c>
       <c r="R9" t="n">
-        <v>2560.562760342777</v>
+        <v>2560.562760342775</v>
       </c>
       <c r="S9" t="n">
-        <v>2424.826280251692</v>
+        <v>2424.826280251691</v>
       </c>
       <c r="T9" t="n">
-        <v>2230.816477685341</v>
+        <v>2230.81647768534</v>
       </c>
       <c r="U9" t="n">
-        <v>2002.72632175157</v>
+        <v>2002.726321751569</v>
       </c>
       <c r="V9" t="n">
-        <v>1767.574213519828</v>
+        <v>1767.574213519826</v>
       </c>
       <c r="W9" t="n">
-        <v>1513.336856791626</v>
+        <v>1513.336856791625</v>
       </c>
       <c r="X9" t="n">
-        <v>1305.485356586093</v>
+        <v>1305.485356586092</v>
       </c>
       <c r="Y9" t="n">
-        <v>1097.725057821139</v>
+        <v>1097.725057821138</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>750.6540623996859</v>
+        <v>297.4949796906412</v>
       </c>
       <c r="C10" t="n">
-        <v>581.717879471779</v>
+        <v>297.4949796906412</v>
       </c>
       <c r="D10" t="n">
-        <v>431.6012400594433</v>
+        <v>297.4949796906412</v>
       </c>
       <c r="E10" t="n">
-        <v>283.6881464770502</v>
+        <v>297.4949796906412</v>
       </c>
       <c r="F10" t="n">
-        <v>136.7981989791398</v>
+        <v>297.4949796906412</v>
       </c>
       <c r="G10" t="n">
-        <v>136.7981989791398</v>
+        <v>297.4949796906412</v>
       </c>
       <c r="H10" t="n">
-        <v>51.21125520685553</v>
+        <v>157.0862549473601</v>
       </c>
       <c r="I10" t="n">
-        <v>51.21125520685553</v>
+        <v>51.2112552068555</v>
       </c>
       <c r="J10" t="n">
-        <v>76.63468308380118</v>
+        <v>76.63468308380111</v>
       </c>
       <c r="K10" t="n">
-        <v>248.2500215676562</v>
+        <v>248.2500215676561</v>
       </c>
       <c r="L10" t="n">
-        <v>523.385004336891</v>
+        <v>523.3850043368908</v>
       </c>
       <c r="M10" t="n">
-        <v>823.8653899904022</v>
+        <v>823.8653899904018</v>
       </c>
       <c r="N10" t="n">
-        <v>1122.635640101611</v>
+        <v>1122.63564010161</v>
       </c>
       <c r="O10" t="n">
-        <v>1382.582027931089</v>
+        <v>1382.582027931088</v>
       </c>
       <c r="P10" t="n">
         <v>1581.490387616497</v>
       </c>
       <c r="Q10" t="n">
-        <v>1635.76914547736</v>
+        <v>1635.769145477359</v>
       </c>
       <c r="R10" t="n">
-        <v>1635.76914547736</v>
+        <v>1533.156055412617</v>
       </c>
       <c r="S10" t="n">
-        <v>1635.76914547736</v>
+        <v>1533.156055412617</v>
       </c>
       <c r="T10" t="n">
-        <v>1635.76914547736</v>
+        <v>1533.156055412617</v>
       </c>
       <c r="U10" t="n">
-        <v>1635.76914547736</v>
+        <v>1244.037681907259</v>
       </c>
       <c r="V10" t="n">
-        <v>1381.084657271473</v>
+        <v>989.3531937013717</v>
       </c>
       <c r="W10" t="n">
-        <v>1381.084657271473</v>
+        <v>699.9360236644111</v>
       </c>
       <c r="X10" t="n">
-        <v>1153.095106373456</v>
+        <v>699.9360236644111</v>
       </c>
       <c r="Y10" t="n">
-        <v>932.3025272299257</v>
+        <v>479.143444520881</v>
       </c>
     </row>
     <row r="11">
@@ -5033,58 +5033,58 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5103,7 +5103,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E12" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F12" t="n">
         <v>314.2396613568978</v>
@@ -5112,34 +5112,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>228.933143164642</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468471</v>
+        <v>562.8579153358626</v>
       </c>
       <c r="L12" t="n">
-        <v>1072.713683962606</v>
+        <v>1058.183521551621</v>
       </c>
       <c r="M12" t="n">
-        <v>1670.092171589158</v>
+        <v>1655.562009178173</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,76 +5173,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908938</v>
+        <v>513.8536007400671</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908938</v>
+        <v>382.4184417036842</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908938</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853357</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832659</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T13" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U13" t="n">
-        <v>1746.193029533438</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V13" t="n">
-        <v>1491.508541327551</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W13" t="n">
-        <v>1202.09137129059</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X13" t="n">
-        <v>974.1018203925726</v>
+        <v>916.294644713837</v>
       </c>
       <c r="Y13" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703069</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075816</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694709</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="15">
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,25 +5349,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>214.9229991561132</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>710.248605371872</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1307.627092998424</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1702.079034721979</v>
       </c>
       <c r="O15" t="n">
         <v>1859.536823237711</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>763.7541388327652</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C16" t="n">
-        <v>594.8179559048583</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D16" t="n">
-        <v>444.7013164925226</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E16" t="n">
-        <v>296.7882229101294</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>149.8982754122191</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>149.8982754122191</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
-        <v>149.8982754122191</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U16" t="n">
-        <v>1938.2863919474</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V16" t="n">
-        <v>1683.601903741513</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W16" t="n">
-        <v>1394.184733704552</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X16" t="n">
-        <v>1166.195182806535</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y16" t="n">
-        <v>945.4026036630049</v>
+        <v>881.3796452313796</v>
       </c>
     </row>
     <row r="17">
@@ -5492,7 +5492,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C17" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
         <v>1590.547811004713</v>
@@ -5501,61 +5501,61 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J17" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q17" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R17" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S17" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T17" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U17" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X17" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y17" t="n">
         <v>2704.375866615997</v>
@@ -5577,7 +5577,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E18" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F18" t="n">
         <v>314.2396613568978</v>
@@ -5586,25 +5586,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>95.58405025273906</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>280.8495004245705</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>776.1751066403293</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1373.553594266881</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>2001.151557821488</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121648</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G19" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J19" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N19" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5744,16 +5744,16 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5762,19 +5762,19 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P20" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q20" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R20" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
         <v>4606.285157492578</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5814,7 +5814,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E21" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F21" t="n">
         <v>314.2396613568978</v>
@@ -5823,34 +5823,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797189</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797189</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438171</v>
+        <v>1140.291933891999</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1767.889897446606</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400717</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121648</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121648</v>
+        <v>265.0731740618515</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797189</v>
+        <v>97.87707477673149</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J22" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K22" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L22" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M22" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N22" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O22" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P22" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q22" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V22" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W22" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="23">
@@ -5966,31 +5966,31 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362681</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
         <v>95.34095638192616</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -5999,37 +5999,37 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O23" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6051,7 +6051,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
         <v>314.2396613568978</v>
@@ -6060,34 +6060,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273906</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L24" t="n">
-        <v>1074.481071167373</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M24" t="n">
-        <v>1671.859558793925</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N24" t="n">
-        <v>2299.457522348532</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="O24" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P24" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q24" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>513.8536007400717</v>
+        <v>762.5477693179085</v>
       </c>
       <c r="C25" t="n">
-        <v>344.9174178121648</v>
+        <v>593.6115863900017</v>
       </c>
       <c r="D25" t="n">
-        <v>344.9174178121648</v>
+        <v>443.4949469776659</v>
       </c>
       <c r="E25" t="n">
-        <v>344.9174178121648</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="F25" t="n">
-        <v>344.9174178121648</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="G25" t="n">
-        <v>177.7213185270447</v>
+        <v>295.5818533952728</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797189</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V25" t="n">
-        <v>1433.70136564882</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W25" t="n">
-        <v>1144.284195611859</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X25" t="n">
-        <v>916.2946447138415</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y25" t="n">
-        <v>695.5020655703114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="26">
@@ -6200,34 +6200,34 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
@@ -6236,7 +6236,7 @@
         <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="27">
@@ -6297,34 +6297,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J27" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516144</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="N27" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O27" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P27" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q27" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>695.5020655703064</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J28" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K28" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L28" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797698</v>
       </c>
       <c r="M28" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N28" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O28" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832663</v>
+        <v>2379.917379832658</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487563</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510504</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854702</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648815</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611854</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138365</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703064</v>
       </c>
     </row>
     <row r="29">
@@ -6455,55 +6455,55 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075811</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R29" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y29" t="n">
         <v>2704.375866615997</v>
@@ -6525,7 +6525,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E30" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F30" t="n">
         <v>314.2396613568978</v>
@@ -6534,34 +6534,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H30" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>95.58405025273906</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>245.2306927803938</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K30" t="n">
-        <v>579.1554649516144</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L30" t="n">
-        <v>1074.481071167373</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="M30" t="n">
-        <v>1671.859558793925</v>
+        <v>691.1951506745238</v>
       </c>
       <c r="N30" t="n">
-        <v>2299.457522348532</v>
+        <v>1318.79311422913</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1870.702844468417</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908938</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908938</v>
+        <v>194.8007783998286</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6695,13 +6695,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6710,10 +6710,10 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6774,31 +6774,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>579.1554649516144</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L33" t="n">
-        <v>1074.481071167373</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="M33" t="n">
-        <v>1671.859558793925</v>
+        <v>842.6091804069456</v>
       </c>
       <c r="N33" t="n">
-        <v>2299.457522348532</v>
+        <v>1470.207143961552</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>571.6607764188008</v>
+        <v>699.73118040114</v>
       </c>
       <c r="C34" t="n">
-        <v>402.7245934908938</v>
+        <v>699.73118040114</v>
       </c>
       <c r="D34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="E34" t="n">
-        <v>402.7245934908938</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F34" t="n">
-        <v>402.7245934908938</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G34" t="n">
         <v>235.5284942057738</v>
@@ -6856,52 +6856,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K34" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L34" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M34" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N34" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O34" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P34" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q34" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U34" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V34" t="n">
-        <v>1491.508541327549</v>
+        <v>1619.578945309888</v>
       </c>
       <c r="W34" t="n">
-        <v>1202.091371290588</v>
+        <v>1330.161775272927</v>
       </c>
       <c r="X34" t="n">
-        <v>974.1018203925706</v>
+        <v>1102.17222437491</v>
       </c>
       <c r="Y34" t="n">
-        <v>753.3092412490405</v>
+        <v>881.3796452313798</v>
       </c>
     </row>
     <row r="35">
@@ -6914,70 +6914,70 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C35" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168616</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N35" t="n">
         <v>2950.898526355938</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P35" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S35" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T35" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U35" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -6999,7 +6999,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E36" t="n">
-        <v>460.7742193300129</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F36" t="n">
         <v>314.2396613568978</v>
@@ -7008,34 +7008,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H36" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797189</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797189</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L36" t="n">
-        <v>589.1422692637307</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M36" t="n">
-        <v>1186.520756890282</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N36" t="n">
-        <v>1814.118720444889</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O36" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q36" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,76 +7069,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400717</v>
+        <v>803.2707707770319</v>
       </c>
       <c r="C37" t="n">
-        <v>344.9174178121648</v>
+        <v>634.334587849125</v>
       </c>
       <c r="D37" t="n">
-        <v>344.9174178121648</v>
+        <v>484.2179484367892</v>
       </c>
       <c r="E37" t="n">
-        <v>344.9174178121648</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F37" t="n">
-        <v>344.9174178121648</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>177.7213185270447</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611859</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138415</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703114</v>
+        <v>984.9192356072716</v>
       </c>
     </row>
     <row r="38">
@@ -7169,10 +7169,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075809</v>
@@ -7184,16 +7184,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P38" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q38" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R38" t="n">
         <v>4690.833152398593</v>
@@ -7214,7 +7214,7 @@
         <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7251,28 +7251,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>589.1422692637307</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1186.520756890282</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1814.118720444889</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="O39" t="n">
-        <v>2366.028450684176</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P39" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q39" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,76 +7306,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>344.9174178121648</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D40" t="n">
-        <v>344.9174178121648</v>
+        <v>363.7369613277355</v>
       </c>
       <c r="E40" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="F40" t="n">
-        <v>344.9174178121648</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="G40" t="n">
-        <v>177.7213185270447</v>
+        <v>215.8238677453423</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K40" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L40" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M40" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N40" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O40" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P40" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q40" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7400,19 +7400,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,28 +7485,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273905</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L42" t="n">
-        <v>590.9096564684978</v>
+        <v>740.5562989961525</v>
       </c>
       <c r="M42" t="n">
-        <v>1188.28814409505</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="N42" t="n">
-        <v>1815.886107649656</v>
+        <v>1337.934786622704</v>
       </c>
       <c r="O42" t="n">
-        <v>2367.795837888943</v>
+        <v>1889.844516861991</v>
       </c>
       <c r="P42" t="n">
-        <v>2516.421633107662</v>
+        <v>2313.467666357059</v>
       </c>
       <c r="Q42" t="n">
         <v>2516.421633107662</v>
@@ -7543,76 +7543,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400717</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E43" t="n">
-        <v>344.9174178121648</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F43" t="n">
-        <v>344.9174178121648</v>
+        <v>198.027470314254</v>
       </c>
       <c r="G43" t="n">
-        <v>177.7213185270447</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J43" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K43" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L43" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M43" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N43" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O43" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P43" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q43" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510509</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854707</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.70136564882</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611859</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138415</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703114</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="44">
@@ -7631,28 +7631,28 @@
         <v>1590.547811004712</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075809</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
         <v>2206.558663014778</v>
@@ -7673,10 +7673,10 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U44" t="n">
         <v>4151.812499466572</v>
@@ -7719,34 +7719,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I45" t="n">
-        <v>95.58405025273905</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J45" t="n">
-        <v>245.2306927803938</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="K45" t="n">
-        <v>579.1554649516144</v>
+        <v>184.7035232280589</v>
       </c>
       <c r="L45" t="n">
-        <v>1074.481071167373</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>680.0291294438176</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P45" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q45" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R45" t="n">
         <v>2553.061288060775</v>
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908938</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N46" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O46" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P46" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q46" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -8073,10 +8073,10 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q3" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R3" t="n">
         <v>45.52166981132082</v>
@@ -8152,7 +8152,7 @@
         <v>163.0416663658825</v>
       </c>
       <c r="P4" t="n">
-        <v>135.0065633140413</v>
+        <v>135.006563314041</v>
       </c>
       <c r="Q4" t="n">
         <v>65.34295837775146</v>
@@ -8310,10 +8310,10 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>97.32166909127244</v>
       </c>
       <c r="Q6" t="n">
-        <v>97.32166909127268</v>
+        <v>0</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8529,13 +8529,13 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>0</v>
+        <v>342.6295957084407</v>
       </c>
       <c r="M9" t="n">
         <v>0</v>
@@ -8544,16 +8544,16 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>35.6838667053882</v>
       </c>
       <c r="P9" t="n">
-        <v>264.4747475094949</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>20.98618304348527</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -11303,7 +11303,7 @@
         <v>0</v>
       </c>
       <c r="M44" t="n">
-        <v>-6.652542196183662e-13</v>
+        <v>0</v>
       </c>
       <c r="N44" t="n">
         <v>0</v>
@@ -23416,25 +23416,25 @@
         <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>16.31315520055003</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23470,7 +23470,7 @@
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>57.22910392194368</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23653,25 +23653,25 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>25.7450400779608</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,10 +23698,10 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>117.6435571543363</v>
       </c>
     </row>
     <row r="17">
@@ -23893,7 +23893,7 @@
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>146.4339626465692</v>
@@ -23902,13 +23902,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H19" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194174</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856552</v>
+        <v>77.24602870709352</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,7 +24172,7 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>57.22910392194174</v>
+        <v>21.81301072096153</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24598,16 +24598,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>32.15184655856712</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194188</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24838,10 +24838,10 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194177</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24850,13 +24850,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>65.54986409393069</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25075,16 +25075,16 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
@@ -25093,7 +25093,7 @@
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25120,7 +25120,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25132,7 +25132,7 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>0</v>
+        <v>184.0188038644579</v>
       </c>
       <c r="W34" t="n">
         <v>0</v>
@@ -25315,22 +25315,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>70.88187642684011</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>57.22910392194174</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25372,7 +25372,7 @@
         <v>0</v>
       </c>
       <c r="W37" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>57.22910392194173</v>
+        <v>100.7734165143927</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25795,16 +25795,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>143.6212754172151</v>
       </c>
       <c r="H43" t="n">
-        <v>57.22910392194173</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -26023,7 +26023,7 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>138.4949402405077</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26071,7 +26071,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>57.22910392194156</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>795199.5753217502</v>
+        <v>795199.5753217501</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>795199.5753217502</v>
+        <v>795199.5753217501</v>
       </c>
     </row>
     <row r="4">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="10">
@@ -26203,7 +26203,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="13">
@@ -26211,7 +26211,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="14">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>777158.3171107152</v>
+        <v>777158.3171107153</v>
       </c>
     </row>
   </sheetData>
@@ -26311,46 +26311,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914267</v>
       </c>
       <c r="C2" t="n">
         <v>656833.4158914266</v>
       </c>
       <c r="D2" t="n">
-        <v>656833.4158914266</v>
+        <v>656833.4158914265</v>
       </c>
       <c r="E2" t="n">
         <v>645717.2797520048</v>
       </c>
       <c r="F2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="G2" t="n">
+        <v>645717.2797520049</v>
+      </c>
+      <c r="H2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="I2" t="n">
         <v>645717.2797520051</v>
       </c>
-      <c r="G2" t="n">
-        <v>645717.279752005</v>
-      </c>
-      <c r="H2" t="n">
-        <v>645717.2797520052</v>
-      </c>
-      <c r="I2" t="n">
-        <v>645717.279752005</v>
-      </c>
       <c r="J2" t="n">
+        <v>645717.2797520047</v>
+      </c>
+      <c r="K2" t="n">
         <v>645717.2797520049</v>
-      </c>
-      <c r="K2" t="n">
-        <v>645717.2797520051</v>
       </c>
       <c r="L2" t="n">
         <v>645717.279752005</v>
       </c>
       <c r="M2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.2797520047</v>
       </c>
       <c r="N2" t="n">
-        <v>645717.2797520051</v>
+        <v>645717.279752005</v>
       </c>
       <c r="O2" t="n">
-        <v>645717.279752005</v>
+        <v>645717.2797520049</v>
       </c>
       <c r="P2" t="n">
         <v>645717.2797520051</v>
@@ -26369,13 +26369,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>390680.0076580772</v>
+        <v>390680.0076580768</v>
       </c>
       <c r="E3" t="n">
         <v>507909.232060695</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>1.797263848857256e-10</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>68999.15441911404</v>
+        <v>68999.15441911403</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>95270.23779101715</v>
+        <v>95270.23779101712</v>
       </c>
       <c r="M3" t="n">
-        <v>132717.9756954696</v>
+        <v>132717.9756954695</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26421,22 +26421,22 @@
         <v>251227.3656190198</v>
       </c>
       <c r="D4" t="n">
-        <v>140465.2517501122</v>
+        <v>140465.2517501123</v>
       </c>
       <c r="E4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="F4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179358</v>
       </c>
       <c r="G4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="H4" t="n">
-        <v>11167.03225179347</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="I4" t="n">
-        <v>11167.03225179349</v>
+        <v>11167.03225179354</v>
       </c>
       <c r="J4" t="n">
         <v>11167.03225179351</v>
@@ -26448,16 +26448,16 @@
         <v>11167.03225179351</v>
       </c>
       <c r="M4" t="n">
-        <v>11167.0322517935</v>
+        <v>11167.03225179353</v>
       </c>
       <c r="N4" t="n">
         <v>11167.03225179353</v>
       </c>
       <c r="O4" t="n">
-        <v>11167.03225179352</v>
+        <v>11167.03225179351</v>
       </c>
       <c r="P4" t="n">
-        <v>11167.03225179346</v>
+        <v>11167.03225179356</v>
       </c>
     </row>
     <row r="5">
@@ -26467,13 +26467,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="C5" t="n">
-        <v>63047.80320426621</v>
+        <v>63047.8032042662</v>
       </c>
       <c r="D5" t="n">
-        <v>92902.86757567883</v>
+        <v>92902.8675756788</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-337529.7335230525</v>
+        <v>-337529.7335230524</v>
       </c>
       <c r="C6" t="n">
         <v>342558.2470681407</v>
       </c>
       <c r="D6" t="n">
-        <v>32785.28890755834</v>
+        <v>32785.2889075586</v>
       </c>
       <c r="E6" t="n">
-        <v>25518.48561560917</v>
+        <v>25483.74769017352</v>
       </c>
       <c r="F6" t="n">
-        <v>533427.7176763045</v>
+        <v>533392.9797508684</v>
       </c>
       <c r="G6" t="n">
-        <v>533427.7176763043</v>
+        <v>533392.9797508686</v>
       </c>
       <c r="H6" t="n">
-        <v>533427.7176763047</v>
+        <v>533392.9797508684</v>
       </c>
       <c r="I6" t="n">
-        <v>533427.7176763043</v>
+        <v>533392.9797508689</v>
       </c>
       <c r="J6" t="n">
-        <v>464428.5632571902</v>
+        <v>464393.8253317543</v>
       </c>
       <c r="K6" t="n">
-        <v>533427.7176763045</v>
+        <v>533392.9797508686</v>
       </c>
       <c r="L6" t="n">
-        <v>438157.4798852872</v>
+        <v>438122.7419598515</v>
       </c>
       <c r="M6" t="n">
-        <v>400709.741980835</v>
+        <v>400675.0040553988</v>
       </c>
       <c r="N6" t="n">
-        <v>533427.7176763045</v>
+        <v>533392.9797508687</v>
       </c>
       <c r="O6" t="n">
-        <v>533427.7176763044</v>
+        <v>533392.9797508686</v>
       </c>
       <c r="P6" t="n">
-        <v>533427.7176763046</v>
+        <v>533392.9797508689</v>
       </c>
     </row>
   </sheetData>
@@ -26725,7 +26725,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>614.0550137694784</v>
       </c>
       <c r="D3" t="n">
-        <v>933.7024595627815</v>
+        <v>933.7024595627812</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,40 +26787,40 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="D4" t="n">
-        <v>640.1406900856941</v>
+        <v>640.1406900856938</v>
       </c>
       <c r="E4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="G4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="H4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="I4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="J4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="K4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="L4" t="n">
         <v>1172.708288099648</v>
       </c>
       <c r="M4" t="n">
-        <v>1172.708288099649</v>
+        <v>1172.708288099648</v>
       </c>
       <c r="N4" t="n">
         <v>1172.708288099648</v>
@@ -26963,13 +26963,13 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>319.6474457933032</v>
+        <v>319.6474457933028</v>
       </c>
       <c r="E3" t="n">
-        <v>434.2730407788924</v>
+        <v>434.2730407788923</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.4268100841876</v>
       </c>
       <c r="E4" t="n">
-        <v>532.5675980139545</v>
+        <v>532.5675980139544</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27039,10 +27039,10 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841877</v>
+        <v>376.4268100841876</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139547</v>
+        <v>532.5675980139544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>263.7138800015063</v>
+        <v>263.7138800015062</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>376.4268100841879</v>
+        <v>376.4268100841876</v>
       </c>
       <c r="M4" t="n">
-        <v>532.5675980139545</v>
+        <v>532.5675980139544</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27379,7 +27379,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>139.8697520073924</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27394,7 +27394,7 @@
         <v>149.1202946442038</v>
       </c>
       <c r="H2" t="n">
-        <v>50.47975262776173</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I2" t="n">
         <v>115.3066195468971</v>
@@ -27427,13 +27427,13 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>212.2897156032232</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1481678782825</v>
+        <v>127.0885569156066</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27442,7 +27442,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27455,25 +27455,25 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D3" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>99.47932027120974</v>
       </c>
       <c r="I3" t="n">
         <v>43.92180400150558</v>
@@ -27503,28 +27503,28 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>18.15252495527767</v>
       </c>
       <c r="S3" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T3" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.8544875035546</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>67.37141336615821</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>89.2947565455531</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -27537,16 +27537,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27588,22 +27588,22 @@
         <v>204.7191642435938</v>
       </c>
       <c r="T4" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2586305026775</v>
+        <v>22.54475050117128</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>177.2801347158932</v>
       </c>
       <c r="W4" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>7.116763822997456</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27625,16 +27625,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>187.4310348820948</v>
+        <v>143.1621657402052</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>314.193632629268</v>
+        <v>50.4797526277618</v>
       </c>
       <c r="I5" t="n">
-        <v>115.3066195468971</v>
+        <v>36.06358976327898</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>152.7676931992223</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>212.2897156032232</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1481678782825</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>85.52708871590676</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>106.0172206769628</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>122.5240586545473</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27692,25 +27692,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>111.0348581872043</v>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>136.0227195864234</v>
       </c>
       <c r="H6" t="n">
-        <v>98.26012296239621</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>43.92180400150558</v>
@@ -27740,16 +27740,16 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>18.15252495527767</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>147.1499354121988</v>
       </c>
       <c r="T6" t="n">
-        <v>194.8409875848768</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8544875035546</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -27761,7 +27761,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y6" t="n">
-        <v>205.6826957773044</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -27771,19 +27771,19 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>135.862599435492</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>166.8836670385466</v>
@@ -27819,13 +27819,13 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>110.2177156941912</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
         <v>204.7191642435938</v>
       </c>
       <c r="T7" t="n">
-        <v>223.2143458795659</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2586305026775</v>
@@ -27834,7 +27834,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>22.8091183350848</v>
       </c>
       <c r="X7" t="n">
         <v>225.7096553890372</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>106.9440869810301</v>
       </c>
       <c r="C8" t="n">
         <v>365.2728917710076</v>
@@ -27859,19 +27859,19 @@
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>148.0662857469106</v>
+        <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0334742203005</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.76608425465062</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4854171348408</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6645630646898</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>251.0453666896857</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27944,7 +27944,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.776449164536871</v>
+        <v>1.776449164538235</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -28011,25 +28011,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.3072536117062</v>
       </c>
       <c r="H10" t="n">
-        <v>62.52624562447812</v>
+        <v>8.252682463191292</v>
       </c>
       <c r="I10" t="n">
-        <v>104.8162497430996</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -28056,7 +28056,7 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5869591640955</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
         <v>194.6738502503845</v>
@@ -28065,16 +28065,16 @@
         <v>220.7514885103388</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271897703044</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -28087,7 +28087,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>1.193711796076968e-12</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -28278,7 +28278,7 @@
         <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>0</v>
+        <v>-1.676039100824228e-12</v>
       </c>
       <c r="N13" t="n">
         <v>0</v>
@@ -28314,7 +28314,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>-1.8733447794294e-12</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -28342,7 +28342,7 @@
         <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>-3.523608934806495e-14</v>
+        <v>0</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28804,7 +28804,7 @@
         <v>0</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="E20" t="n">
         <v>0</v>
@@ -29044,7 +29044,7 @@
         <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>-1.48922927069681e-13</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
@@ -29053,7 +29053,7 @@
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29460,7 +29460,7 @@
         <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>0</v>
+        <v>-3.510418468994654e-12</v>
       </c>
       <c r="M28" t="n">
         <v>0</v>
@@ -29578,7 +29578,7 @@
         <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>-9.207950820887296e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -29992,7 +29992,7 @@
         <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>3.979039320256561e-13</v>
       </c>
       <c r="F35" t="n">
         <v>0</v>
@@ -30220,7 +30220,7 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="C38" t="n">
         <v>0</v>
@@ -30286,7 +30286,7 @@
         <v>0</v>
       </c>
       <c r="X38" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -30703,7 +30703,7 @@
         <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.753577726885551</v>
+        <v>3.75357772688555</v>
       </c>
       <c r="H8" t="n">
-        <v>38.44132789546666</v>
+        <v>38.44132789546664</v>
       </c>
       <c r="I8" t="n">
         <v>144.7098053157553</v>
       </c>
       <c r="J8" t="n">
-        <v>318.5802175972528</v>
+        <v>318.5802175972527</v>
       </c>
       <c r="K8" t="n">
-        <v>477.4691627763183</v>
+        <v>477.4691627763181</v>
       </c>
       <c r="L8" t="n">
-        <v>592.3427171354921</v>
+        <v>592.3427171354919</v>
       </c>
       <c r="M8" t="n">
-        <v>659.0954050359931</v>
+        <v>659.0954050359927</v>
       </c>
       <c r="N8" t="n">
-        <v>669.7602577525066</v>
+        <v>669.7602577525064</v>
       </c>
       <c r="O8" t="n">
-        <v>632.4356192307883</v>
+        <v>632.4356192307881</v>
       </c>
       <c r="P8" t="n">
-        <v>539.7691690983013</v>
+        <v>539.7691690983011</v>
       </c>
       <c r="Q8" t="n">
-        <v>405.3441667542123</v>
+        <v>405.3441667542122</v>
       </c>
       <c r="R8" t="n">
-        <v>235.7856768864747</v>
+        <v>235.7856768864746</v>
       </c>
       <c r="S8" t="n">
-        <v>85.53465245140458</v>
+        <v>85.53465245140455</v>
       </c>
       <c r="T8" t="n">
-        <v>16.43128649944151</v>
+        <v>16.4312864994415</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3002862181508441</v>
+        <v>0.3002862181508439</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,46 +31592,46 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.008341139436927</v>
+        <v>2.008341139436926</v>
       </c>
       <c r="H9" t="n">
-        <v>19.39634732035137</v>
+        <v>19.39634732035136</v>
       </c>
       <c r="I9" t="n">
-        <v>69.1468330902626</v>
+        <v>69.14683309026258</v>
       </c>
       <c r="J9" t="n">
-        <v>189.7441951079423</v>
+        <v>189.7441951079422</v>
       </c>
       <c r="K9" t="n">
-        <v>324.3030514502163</v>
+        <v>324.3030514502162</v>
       </c>
       <c r="L9" t="n">
-        <v>436.0654741571274</v>
+        <v>436.0654741571273</v>
       </c>
       <c r="M9" t="n">
-        <v>508.8678404617159</v>
+        <v>508.8678404617157</v>
       </c>
       <c r="N9" t="n">
-        <v>522.3360580152206</v>
+        <v>522.3360580152205</v>
       </c>
       <c r="O9" t="n">
-        <v>477.8354464519076</v>
+        <v>477.8354464519074</v>
       </c>
       <c r="P9" t="n">
-        <v>383.5050724947584</v>
+        <v>383.5050724947582</v>
       </c>
       <c r="Q9" t="n">
-        <v>256.3629847463698</v>
+        <v>256.3629847463697</v>
       </c>
       <c r="R9" t="n">
-        <v>124.6933209204787</v>
+        <v>124.6933209204786</v>
       </c>
       <c r="S9" t="n">
-        <v>37.30405581366394</v>
+        <v>37.30405581366392</v>
       </c>
       <c r="T9" t="n">
-        <v>8.095024154133924</v>
+        <v>8.09502415413392</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321277065419031</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.683725746752557</v>
+        <v>1.683725746752556</v>
       </c>
       <c r="H10" t="n">
         <v>14.96985254840001</v>
       </c>
       <c r="I10" t="n">
-        <v>50.63422518415872</v>
+        <v>50.6342251841587</v>
       </c>
       <c r="J10" t="n">
-        <v>119.0394102954058</v>
+        <v>119.0394102954057</v>
       </c>
       <c r="K10" t="n">
-        <v>195.6183185772516</v>
+        <v>195.6183185772515</v>
       </c>
       <c r="L10" t="n">
-        <v>250.324098749012</v>
+        <v>250.3240987490119</v>
       </c>
       <c r="M10" t="n">
-        <v>263.9316641023121</v>
+        <v>263.931664102312</v>
       </c>
       <c r="N10" t="n">
-        <v>257.6559590462346</v>
+        <v>257.6559590462345</v>
       </c>
       <c r="O10" t="n">
-        <v>237.9869810046251</v>
+        <v>237.986981004625</v>
       </c>
       <c r="P10" t="n">
-        <v>203.6389757708728</v>
+        <v>203.6389757708727</v>
       </c>
       <c r="Q10" t="n">
         <v>140.98907139398</v>
       </c>
       <c r="R10" t="n">
-        <v>75.70643221307402</v>
+        <v>75.70643221307401</v>
       </c>
       <c r="S10" t="n">
-        <v>29.34274778658773</v>
+        <v>29.34274778658772</v>
       </c>
       <c r="T10" t="n">
-        <v>7.19410091794274</v>
+        <v>7.194100917942738</v>
       </c>
       <c r="U10" t="n">
-        <v>0.0918395861865032</v>
+        <v>0.09183958618650316</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,49 +31750,49 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>263.3189197138083</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565762</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P12" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.689256441856</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -31987,7 +31987,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H14" t="n">
         <v>56.32071997135341</v>
@@ -31999,31 +31999,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S14" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
         <v>24.07361910651528</v>
@@ -32066,49 +32066,49 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H15" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>260.171071406825</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437244</v>
+        <v>301.6445156724565</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R15" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U15" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -32148,25 +32148,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J16" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N16" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
         <v>348.6767717920058</v>
@@ -32175,19 +32175,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q16" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R16" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U16" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -32224,7 +32224,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H17" t="n">
         <v>56.32071997135341</v>
@@ -32236,31 +32236,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L17" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R17" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S17" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
         <v>24.07361910651528</v>
@@ -32303,31 +32303,31 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H18" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>324.9782573297443</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437244</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32339,13 +32339,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T18" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U18" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V18" t="n">
         <v>0</v>
@@ -32385,25 +32385,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H19" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J19" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N19" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
         <v>348.6767717920058</v>
@@ -32412,19 +32412,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q19" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R19" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32461,7 +32461,7 @@
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H20" t="n">
         <v>56.32071997135341</v>
@@ -32473,31 +32473,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L20" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M20" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N20" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O20" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P20" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q20" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R20" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S20" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T20" t="n">
         <v>24.07361910651528</v>
@@ -32540,49 +32540,49 @@
         <v>0</v>
       </c>
       <c r="G21" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H21" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622658</v>
+        <v>708.9385480032147</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.5996128485291</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T21" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U21" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
@@ -32622,25 +32622,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H22" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I22" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J22" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K22" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L22" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M22" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N22" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O22" t="n">
         <v>348.6767717920058</v>
@@ -32649,19 +32649,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q22" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R22" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S22" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T22" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U22" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,49 +32777,49 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O24" t="n">
-        <v>398.7616643558013</v>
+        <v>483.3274636075166</v>
       </c>
       <c r="P24" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q24" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R24" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -32935,7 +32935,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H26" t="n">
         <v>56.32071997135341</v>
@@ -32947,31 +32947,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K26" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L26" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M26" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N26" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O26" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P26" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q26" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R26" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S26" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T26" t="n">
         <v>24.07361910651528</v>
@@ -33014,49 +33014,49 @@
         <v>0</v>
       </c>
       <c r="G27" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H27" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J27" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N27" t="n">
-        <v>765.2790490071786</v>
+        <v>519.7862086120942</v>
       </c>
       <c r="O27" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q27" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R27" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S27" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T27" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U27" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V27" t="n">
         <v>0</v>
@@ -33096,25 +33096,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H28" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I28" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J28" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K28" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L28" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M28" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N28" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O28" t="n">
         <v>348.6767717920058</v>
@@ -33123,19 +33123,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q28" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R28" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S28" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T28" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L30" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>550.5977692975241</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,10 +33488,10 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>101.3076196007749</v>
@@ -33500,37 +33500,37 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473073</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>398.7616643558013</v>
+        <v>535.8585467435948</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33646,7 +33646,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H35" t="n">
         <v>56.32071997135341</v>
@@ -33658,31 +33658,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O35" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P35" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q35" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R35" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S35" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T35" t="n">
         <v>24.07361910651528</v>
@@ -33725,49 +33725,49 @@
         <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H36" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>638.8832749473073</v>
+        <v>391.605194951448</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N36" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S36" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T36" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U36" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,25 +33807,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H37" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I37" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J37" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K37" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L37" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M37" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N37" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O37" t="n">
         <v>348.6767717920058</v>
@@ -33834,19 +33834,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q37" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R37" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S37" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T37" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U37" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -33883,7 +33883,7 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H38" t="n">
         <v>56.32071997135341</v>
@@ -33895,31 +33895,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K38" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L38" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M38" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N38" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O38" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P38" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q38" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R38" t="n">
-        <v>345.451622204372</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S38" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T38" t="n">
         <v>24.07361910651528</v>
@@ -33962,49 +33962,49 @@
         <v>0</v>
       </c>
       <c r="G39" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H39" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071786</v>
+        <v>322.6999460717714</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437244</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P39" t="n">
-        <v>322.8964653704906</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q39" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R39" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S39" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T39" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U39" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
@@ -34044,25 +34044,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H40" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I40" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J40" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K40" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M40" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N40" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O40" t="n">
         <v>348.6767717920058</v>
@@ -34071,19 +34071,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q40" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R40" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S40" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T40" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U40" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -34120,7 +34120,7 @@
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H41" t="n">
         <v>56.32071997135341</v>
@@ -34132,31 +34132,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K41" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L41" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M41" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N41" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O41" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P41" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q41" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R41" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S41" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T41" t="n">
         <v>24.07361910651528</v>
@@ -34199,49 +34199,49 @@
         <v>0</v>
       </c>
       <c r="G42" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H42" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
         <v>137.841438974359</v>
       </c>
       <c r="L42" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071786</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>284.1014732918236</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q42" t="n">
-        <v>139.9817740860215</v>
+        <v>344.9857809048118</v>
       </c>
       <c r="R42" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S42" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T42" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U42" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
@@ -34281,25 +34281,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H43" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I43" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J43" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K43" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L43" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M43" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N43" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O43" t="n">
         <v>348.6767717920058</v>
@@ -34308,19 +34308,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q43" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R43" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S43" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T43" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U43" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -34357,7 +34357,7 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H44" t="n">
         <v>56.32071997135341</v>
@@ -34369,31 +34369,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R44" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S44" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
         <v>24.07361910651528</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H45" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>218.6425359394819</v>
       </c>
       <c r="K45" t="n">
-        <v>475.1391886422586</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862122</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R45" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T45" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U45" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34518,25 +34518,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H46" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J46" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N46" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
         <v>348.6767717920058</v>
@@ -34545,19 +34545,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q46" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R46" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34793,10 +34793,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P3" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q3" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34872,7 +34872,7 @@
         <v>181.0986910958077</v>
       </c>
       <c r="P4" t="n">
-        <v>131.2029511204533</v>
+        <v>131.202951120453</v>
       </c>
       <c r="Q4" t="n">
         <v>6.56026382749684</v>
@@ -35030,10 +35030,10 @@
         <v>171.6550983098281</v>
       </c>
       <c r="P6" t="n">
-        <v>118.240000033741</v>
+        <v>215.5616691250135</v>
       </c>
       <c r="Q6" t="n">
-        <v>125.9385470877691</v>
+        <v>28.61687799649641</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35170,31 +35170,31 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>137.5343130705666</v>
+        <v>137.5343130705664</v>
       </c>
       <c r="K8" t="n">
-        <v>257.3793117313377</v>
+        <v>257.3793117313376</v>
       </c>
       <c r="L8" t="n">
-        <v>356.5763021655048</v>
+        <v>356.5763021655046</v>
       </c>
       <c r="M8" t="n">
-        <v>428.7491718087203</v>
+        <v>428.74917180872</v>
       </c>
       <c r="N8" t="n">
-        <v>440.3471941559157</v>
+        <v>440.3471941559155</v>
       </c>
       <c r="O8" t="n">
-        <v>402.3374078091016</v>
+        <v>402.3374078091014</v>
       </c>
       <c r="P8" t="n">
-        <v>308.5361733430317</v>
+        <v>308.5361733430315</v>
       </c>
       <c r="Q8" t="n">
-        <v>183.0384768797628</v>
+        <v>183.0384768797627</v>
       </c>
       <c r="R8" t="n">
-        <v>20.20013907234258</v>
+        <v>20.20013907234249</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,31 +35249,31 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>62.90656844127557</v>
+        <v>188.9976037816843</v>
       </c>
       <c r="K9" t="n">
-        <v>450.9268494884359</v>
+        <v>186.4616124758572</v>
       </c>
       <c r="L9" t="n">
-        <v>297.5110943772532</v>
+        <v>640.1406900856938</v>
       </c>
       <c r="M9" t="n">
-        <v>366.7338065396976</v>
+        <v>366.7338065396974</v>
       </c>
       <c r="N9" t="n">
-        <v>390.9943459318873</v>
+        <v>390.9943459318872</v>
       </c>
       <c r="O9" t="n">
-        <v>335.2392020074632</v>
+        <v>370.9230687128512</v>
       </c>
       <c r="P9" t="n">
-        <v>514.005412589923</v>
+        <v>249.530665080428</v>
       </c>
       <c r="Q9" t="n">
         <v>116.3812106603482</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.53548676783551</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,28 +35328,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.68023017873298</v>
+        <v>25.68023017873293</v>
       </c>
       <c r="K10" t="n">
-        <v>173.3488267513687</v>
+        <v>173.3488267513686</v>
       </c>
       <c r="L10" t="n">
-        <v>277.9141240093281</v>
+        <v>277.914124009328</v>
       </c>
       <c r="M10" t="n">
-        <v>303.5155410641527</v>
+        <v>303.5155410641526</v>
       </c>
       <c r="N10" t="n">
-        <v>301.7881314254632</v>
+        <v>301.7881314254631</v>
       </c>
       <c r="O10" t="n">
-        <v>262.5721089186648</v>
+        <v>262.5721089186647</v>
       </c>
       <c r="P10" t="n">
-        <v>200.9175350357663</v>
+        <v>200.9175350357662</v>
       </c>
       <c r="Q10" t="n">
-        <v>54.82702814228561</v>
+        <v>54.82702814228558</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35404,34 +35404,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>136.4812930471416</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674331</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121318</v>
+        <v>0</v>
       </c>
       <c r="P12" t="n">
         <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789208</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.272427001041</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35641,34 +35641,34 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J14" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L14" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N14" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P14" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R14" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>122.329632432466</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.48457599928</v>
+        <v>159.048271228012</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,22 +35802,22 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L16" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N16" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
         <v>295.631773306625</v>
@@ -35878,34 +35878,34 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K17" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L17" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N17" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P17" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R17" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35957,25 +35957,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>187.1368183553853</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.48457599928</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36039,22 +36039,22 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K19" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L19" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N19" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36115,34 +36115,34 @@
         <v>0</v>
       </c>
       <c r="I20" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J20" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N20" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O20" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P20" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q20" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R20" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36194,34 +36194,34 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>0</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402476</v>
+        <v>566.8045140811964</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625076</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36276,22 +36276,22 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K22" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L22" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M22" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N22" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O22" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P22" t="n">
         <v>295.631773306625</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,34 +36431,34 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O24" t="n">
-        <v>256.1654199113569</v>
+        <v>340.7312191630721</v>
       </c>
       <c r="P24" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q24" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R24" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36589,34 +36589,34 @@
         <v>0</v>
       </c>
       <c r="I26" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J26" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K26" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L26" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M26" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N26" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O26" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P26" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q26" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R26" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N27" t="n">
-        <v>633.9373369238454</v>
+        <v>388.4444965287609</v>
       </c>
       <c r="O27" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R27" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36750,22 +36750,22 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K28" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L28" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191267</v>
       </c>
       <c r="M28" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N28" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O28" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
         <v>295.631773306625</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36905,34 +36905,34 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L30" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>416.6233618831939</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
-        <v>500.3288951674331</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>256.1654199113569</v>
+        <v>393.2623022991504</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37224,22 +37224,22 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K34" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L34" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M34" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N34" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O34" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P34" t="n">
         <v>295.631773306625</v>
@@ -37300,34 +37300,34 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O35" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P35" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q35" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R35" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>500.3288951674331</v>
+        <v>253.0508151715738</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N36" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37461,22 +37461,22 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K37" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L37" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M37" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N37" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O37" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P37" t="n">
         <v>295.631773306625</v>
@@ -37537,34 +37537,34 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K38" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L38" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M38" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N38" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O38" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P38" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q38" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R38" t="n">
-        <v>129.8660843902399</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37619,31 +37619,31 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238454</v>
+        <v>191.358233988438</v>
       </c>
       <c r="O39" t="n">
-        <v>557.48457599928</v>
+        <v>0</v>
       </c>
       <c r="P39" t="n">
-        <v>188.9220579561604</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q39" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,22 +37698,22 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K40" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L40" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M40" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N40" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O40" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P40" t="n">
         <v>295.631773306625</v>
@@ -37774,34 +37774,34 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K41" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L41" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M41" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N41" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O41" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q41" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R41" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -37853,34 +37853,34 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
         <v>0</v>
       </c>
       <c r="L42" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238454</v>
+        <v>0</v>
       </c>
       <c r="O42" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>150.1270658774933</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q42" t="n">
-        <v>0</v>
+        <v>205.0040068187903</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789214</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37935,22 +37935,22 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K43" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L43" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M43" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N43" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O43" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P43" t="n">
         <v>295.631773306625</v>
@@ -38011,34 +38011,34 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K44" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902934</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N44" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P44" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R44" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38090,34 +38090,34 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>1.785239600774929</v>
+        <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>91.80490927281524</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>0</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R45" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S45" t="n">
         <v>0</v>
@@ -38172,22 +38172,22 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K46" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L46" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N46" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P46" t="n">
         <v>295.631773306625</v>
